--- a/language.xlsx
+++ b/language.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\THESIS\myweb\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="6675" windowHeight="6480"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="231">
   <si>
     <t>bm</t>
   </si>
@@ -631,6 +636,84 @@
   </si>
   <si>
     <t>'tcname' : 'Tên quyền',</t>
+  </si>
+  <si>
+    <t>hocvienQuery</t>
+  </si>
+  <si>
+    <t>giangvienQuery</t>
+  </si>
+  <si>
+    <t>bomonQuery</t>
+  </si>
+  <si>
+    <t>nienkhoaQuery</t>
+  </si>
+  <si>
+    <t>donvingoaiQuery</t>
+  </si>
+  <si>
+    <t>detailuanvanQuery</t>
+  </si>
+  <si>
+    <t>chuyennganhQuery</t>
+  </si>
+  <si>
+    <t>chuyenmonQuery</t>
+  </si>
+  <si>
+    <t>hddcQuery</t>
+  </si>
+  <si>
+    <t>hdlvQuery</t>
+  </si>
+  <si>
+    <t>tungay</t>
+  </si>
+  <si>
+    <t>denngay</t>
+  </si>
+  <si>
+    <t>Truy vấn Học viên</t>
+  </si>
+  <si>
+    <t>Truy vấn Giảng viên</t>
+  </si>
+  <si>
+    <t>Truy vấn Bộ môn</t>
+  </si>
+  <si>
+    <t>Truy vấn Niên khóa</t>
+  </si>
+  <si>
+    <t>Truy vấn Đơn vị ngoài</t>
+  </si>
+  <si>
+    <t>Truy vấn Đề tài luận văn</t>
+  </si>
+  <si>
+    <t>Truy vấn Chuyên ngành</t>
+  </si>
+  <si>
+    <t>Truy vấn Chuyên môn</t>
+  </si>
+  <si>
+    <t>Truy vấn Hội đồng đề cương</t>
+  </si>
+  <si>
+    <t>Truy vấn Hội đồng luận văn</t>
+  </si>
+  <si>
+    <t>phanquyenQuery</t>
+  </si>
+  <si>
+    <t>Truy vấn phân quyền</t>
+  </si>
+  <si>
+    <t>grant</t>
+  </si>
+  <si>
+    <t>Cấp quyền</t>
   </si>
 </sst>
 </file>
@@ -677,6 +760,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -725,7 +811,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -760,7 +846,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -969,10 +1055,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D73"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A2:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1960,7 +2047,7 @@
         <v>126</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" ref="C67:C73" si="1">"'"&amp;A67&amp;"' : '"&amp;B67&amp;"',"</f>
+        <f t="shared" ref="C67:C87" si="1">"'"&amp;A67&amp;"' : '"&amp;B67&amp;"',"</f>
         <v>'nknam' : 'Năm',</v>
       </c>
       <c r="D67" t="s">
@@ -2057,8 +2144,177 @@
         <v>204</v>
       </c>
     </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>205</v>
+      </c>
+      <c r="B74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>'hocvienQuery' : 'Truy vấn Học viên',</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>'giangvienQuery' : 'Truy vấn Giảng viên',</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="1"/>
+        <v>'bomonQuery' : 'Truy vấn Bộ môn',</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="1"/>
+        <v>'nienkhoaQuery' : 'Truy vấn Niên khóa',</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>209</v>
+      </c>
+      <c r="B78" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="1"/>
+        <v>'donvingoaiQuery' : 'Truy vấn Đơn vị ngoài',</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>210</v>
+      </c>
+      <c r="B79" t="s">
+        <v>222</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="1"/>
+        <v>'detailuanvanQuery' : 'Truy vấn Đề tài luận văn',</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>211</v>
+      </c>
+      <c r="B80" t="s">
+        <v>223</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="1"/>
+        <v>'chuyennganhQuery' : 'Truy vấn Chuyên ngành',</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>212</v>
+      </c>
+      <c r="B81" t="s">
+        <v>224</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="1"/>
+        <v>'chuyenmonQuery' : 'Truy vấn Chuyên môn',</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>213</v>
+      </c>
+      <c r="B82" t="s">
+        <v>225</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="1"/>
+        <v>'hddcQuery' : 'Truy vấn Hội đồng đề cương',</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>214</v>
+      </c>
+      <c r="B83" t="s">
+        <v>226</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="1"/>
+        <v>'hdlvQuery' : 'Truy vấn Hội đồng luận văn',</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84" t="s">
+        <v>127</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="1"/>
+        <v>'tungay' : 'Từ ngày',</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>216</v>
+      </c>
+      <c r="B85" t="s">
+        <v>128</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="1"/>
+        <v>'denngay' : 'Đến ngày',</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>227</v>
+      </c>
+      <c r="B86" t="s">
+        <v>228</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="1"/>
+        <v>'phanquyenQuery' : 'Truy vấn phân quyền',</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>229</v>
+      </c>
+      <c r="B87" t="s">
+        <v>230</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="1"/>
+        <v>'grant' : 'Cấp quyền',</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
